--- a/2022/Price List/Symphony Price List 16.04.2022.xlsx
+++ b/2022/Price List/Symphony Price List 16.04.2022.xlsx
@@ -370,7 +370,7 @@
     <t>ATOM II</t>
   </si>
   <si>
-    <t xml:space="preserve"> Price List of Symphony Mobile (24.04.2022)</t>
+    <t xml:space="preserve"> Price List of Symphony Mobile (06.05.2022)</t>
   </si>
 </sst>
 </file>
@@ -909,6 +909,24 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,24 +982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3322,7 +3322,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,46 +3341,46 @@
   <sheetData>
     <row r="1" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="40"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3405,10 +3405,10 @@
       <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -3433,10 +3433,10 @@
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -3461,10 +3461,10 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -3489,10 +3489,10 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -3517,10 +3517,10 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -3545,10 +3545,10 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -3573,10 +3573,10 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -3601,10 +3601,10 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -3629,10 +3629,10 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -3657,10 +3657,10 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -3685,10 +3685,10 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -3713,10 +3713,10 @@
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -3741,10 +3741,10 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -3769,10 +3769,10 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -3797,10 +3797,10 @@
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -3825,10 +3825,10 @@
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -3853,10 +3853,10 @@
       <c r="I20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -3881,10 +3881,10 @@
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -3909,10 +3909,10 @@
       <c r="I22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -3937,10 +3937,10 @@
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -3965,10 +3965,10 @@
       <c r="I24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -3993,10 +3993,10 @@
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="40"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -4021,10 +4021,10 @@
       <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="40"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -4049,10 +4049,10 @@
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -4077,10 +4077,10 @@
       <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -4105,10 +4105,10 @@
       <c r="I29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="11">
         <v>27</v>
       </c>
@@ -4133,10 +4133,10 @@
       <c r="I30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -4161,10 +4161,10 @@
       <c r="I31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="18">
         <v>29</v>
       </c>
@@ -4189,24 +4189,24 @@
       <c r="I32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="40"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -4231,38 +4231,38 @@
       <c r="I34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="40"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="59">
+      <c r="A35" s="47"/>
+      <c r="B35" s="40">
         <v>31</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="41">
         <v>7390</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="42">
         <v>7890</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="I35" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="40"/>
+      <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -4287,10 +4287,10 @@
       <c r="I36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="40"/>
+      <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -4315,10 +4315,10 @@
       <c r="I37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="40"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -4343,10 +4343,10 @@
       <c r="I38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="40"/>
+      <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -4371,10 +4371,10 @@
       <c r="I39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="40"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -4399,10 +4399,10 @@
       <c r="I40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="40"/>
+      <c r="J40" s="46"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -4427,10 +4427,10 @@
       <c r="I41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="40"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -4455,10 +4455,10 @@
       <c r="I42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="40"/>
+      <c r="J42" s="46"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -4483,10 +4483,10 @@
       <c r="I43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="40"/>
+      <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -4511,10 +4511,10 @@
       <c r="I44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="40"/>
+      <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -4539,10 +4539,10 @@
       <c r="I45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="40"/>
+      <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -4567,10 +4567,10 @@
       <c r="I46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J46" s="40"/>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -4595,10 +4595,10 @@
       <c r="I47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="40"/>
+      <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -4623,10 +4623,10 @@
       <c r="I48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="40"/>
+      <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -4651,10 +4651,10 @@
       <c r="I49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="40"/>
+      <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -4679,10 +4679,10 @@
       <c r="I50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="40"/>
+      <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="1">
         <v>47</v>
       </c>
@@ -4707,10 +4707,10 @@
       <c r="I51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="40"/>
+      <c r="J51" s="46"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -4735,10 +4735,10 @@
       <c r="I52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J52" s="40"/>
+      <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -4763,38 +4763,38 @@
       <c r="I53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J53" s="40"/>
+      <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="59">
+      <c r="A54" s="47"/>
+      <c r="B54" s="40">
         <v>50</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="41">
         <v>9050</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="42">
         <v>9599</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="63" t="s">
+      <c r="G54" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="63" t="s">
+      <c r="H54" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I54" s="64" t="s">
+      <c r="I54" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J54" s="40"/>
+      <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="1">
         <v>51</v>
       </c>
@@ -4819,10 +4819,10 @@
       <c r="I55" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J55" s="40"/>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="1"/>
       <c r="C56" s="30"/>
       <c r="D56" s="31"/>
@@ -4831,10 +4831,10 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="40"/>
+      <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="1"/>
       <c r="C57" s="30"/>
       <c r="D57" s="31"/>
@@ -4843,37 +4843,37 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="40"/>
+      <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="48" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="51" t="s">
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="54" t="s">
+      <c r="F58" s="58"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I58" s="55"/>
-      <c r="J58" s="40"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/2022/Price List/Symphony Price List 16.04.2022.xlsx
+++ b/2022/Price List/Symphony Price List 16.04.2022.xlsx
@@ -3321,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
